--- a/sample_questions_100.xlsx
+++ b/sample_questions_100.xlsx
@@ -1806,7 +1806,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>diabetes, at risk</t>
+          <t>at risk, diabetes</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>should I take, should I</t>
+          <t>should I, should I take</t>
         </is>
       </c>
     </row>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>kill, hate</t>
+          <t>hate, kill</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>titanic, survived</t>
+          <t>survived, titanic</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>survived, titanic</t>
+          <t>titanic, survived</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>women, elderly</t>
+          <t>elderly, women</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -11282,7 +11282,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>screening, cancer</t>
+          <t>cancer, screening</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">

--- a/sample_questions_100.xlsx
+++ b/sample_questions_100.xlsx
@@ -1158,7 +1158,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>obese, diabetes</t>
+          <t>diabetes, obese</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>at risk, diabetes</t>
+          <t>diabetes, at risk</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>species, penguins</t>
+          <t>penguins, species</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>stroke, smoke</t>
+          <t>smoke, stroke</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>medical, conditions</t>
+          <t>conditions, medical</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>medical, conditions</t>
+          <t>conditions, medical</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>medical, conditions</t>
+          <t>conditions, medical</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>species, penguins</t>
+          <t>penguins, species</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>species, penguins</t>
+          <t>penguins, species</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>hate, stupid</t>
+          <t>stupid, hate</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>species, penguins</t>
+          <t>penguins, species</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>obese, diabetes, smoke</t>
+          <t>diabetes, smoke, obese</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -8258,7 +8258,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>obese, diabetes, smoke</t>
+          <t>diabetes, smoke, obese</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>elderly, women</t>
+          <t>women, elderly</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -8910,7 +8910,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>cancer, breast</t>
+          <t>breast, cancer</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -9020,7 +9020,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>cancer, breast, smoke</t>
+          <t>smoke, breast, cancer</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -9892,7 +9892,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>obese, diabetes, smoke</t>
+          <t>diabetes, smoke, obese</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>chart, smoke</t>
+          <t>smoke, chart</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -11282,7 +11282,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>cancer, screening</t>
+          <t>screening, cancer</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -11392,7 +11392,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>died, titanic</t>
+          <t>titanic, died</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
